--- a/assets/data/SITARING HAJA KIRIM.xlsx
+++ b/assets/data/SITARING HAJA KIRIM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\maping\adminweb\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\sitaring\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24EFCA9-3372-4F57-976A-D6ED3DA433E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A80DB55-A32C-4C8D-A5E6-194DA6F952CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'DATA BMD DCKTR'!$A$1:$W$15</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -748,6 +755,57 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -760,12 +818,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -785,51 +837,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1178,13 +1185,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:II15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="X9" sqref="X9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1217,30 +1225,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:243" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
     </row>
     <row r="2" spans="1:243" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -1319,57 +1327,57 @@
       <c r="V4" s="16"/>
     </row>
     <row r="5" spans="1:243" s="30" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="69" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="64" t="s">
+      <c r="E5" s="57"/>
+      <c r="F5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="49" t="s">
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="64" t="s">
+      <c r="P5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="49" t="s">
+      <c r="Q5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="R5" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="54"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="49" t="s">
+      <c r="S5" s="69"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="66" t="s">
+      <c r="V5" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="49" t="s">
+      <c r="W5" s="58" t="s">
         <v>41</v>
       </c>
       <c r="X5" s="28"/>
@@ -1594,18 +1602,18 @@
       <c r="II5" s="28"/>
     </row>
     <row r="6" spans="1:243" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="67" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="31" t="s">
         <v>6</v>
       </c>
@@ -1615,26 +1623,26 @@
       <c r="K6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="51" t="s">
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="52"/>
+      <c r="S6" s="67"/>
       <c r="T6" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="50"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="50"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="59"/>
       <c r="X6" s="28"/>
       <c r="Y6" s="28"/>
       <c r="Z6" s="28"/>
@@ -1857,14 +1865,14 @@
       <c r="II6" s="28"/>
     </row>
     <row r="7" spans="1:243" s="30" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="53"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="33" t="s">
         <v>5</v>
       </c>
@@ -1874,12 +1882,12 @@
       <c r="K7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="50"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="59"/>
       <c r="R7" s="33" t="s">
         <v>34</v>
       </c>
@@ -1889,9 +1897,9 @@
       <c r="T7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="50"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="53"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="68"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
       <c r="Z7" s="28"/>
@@ -2117,10 +2125,10 @@
       <c r="A8" s="41">
         <v>1</v>
       </c>
-      <c r="B8" s="71">
+      <c r="B8" s="60">
         <v>2</v>
       </c>
-      <c r="C8" s="72"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="41">
         <v>3</v>
       </c>
@@ -2182,10 +2190,10 @@
     </row>
     <row r="9" spans="1:243" customFormat="1" ht="51.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
       <c r="F9" s="37"/>
@@ -2252,10 +2260,10 @@
     </row>
     <row r="11" spans="1:243" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="18"/>
       <c r="E11" s="4"/>
       <c r="F11" s="10"/>
@@ -2399,6 +2407,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="M6:M7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="F5:F7"/>
@@ -2415,16 +2431,8 @@
     <mergeCell ref="Q5:Q7"/>
     <mergeCell ref="U5:U7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="M6:M7"/>
   </mergeCells>
-  <pageMargins left="0.19" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="10001" scale="50" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>